--- a/preprocessed_data/4호선/2022_4호선_토요일_상선.xlsx
+++ b/preprocessed_data/4호선/2022_4호선_토요일_상선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f199c170268207/바탕 화면/myCoding/FORZA-DATA/preprocessed_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0yeon\FORZA-DATA\preprocessed_data\4호선\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_2C7C8FB137ACE011AFFA33ED8004219131D3958A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA69FDC-C324-4BBB-8119-1E89D8FA258A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC7D85-9574-464F-B213-4C5781D93336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역명" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>총신대입구</t>
   </si>
   <si>
-    <t>미아삼거리</t>
-  </si>
-  <si>
     <t>한성대입구</t>
   </si>
   <si>
@@ -225,6 +222,10 @@
   </si>
   <si>
     <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미아사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,7 +811,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -823,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -939,7 +938,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1055,7 +1054,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -1287,7 +1286,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -1403,7 +1402,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>6.2</v>
@@ -1516,7 +1515,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>9.6</v>
@@ -1629,7 +1628,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>14.1</v>
@@ -1742,7 +1741,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>17.600000000000001</v>
@@ -1855,7 +1854,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>18.8</v>
@@ -1971,7 +1970,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>15.4</v>
@@ -2086,8 +2085,8 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
+      <c r="A12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B12">
         <v>14.2</v>
@@ -2203,7 +2202,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>12.9</v>
@@ -2435,7 +2434,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>10.7</v>
@@ -2551,7 +2550,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>9.9</v>
@@ -2667,7 +2666,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>14.3</v>
@@ -2899,7 +2898,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>10.5</v>
@@ -3015,7 +3014,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>8.9</v>
@@ -3131,7 +3130,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>8.8000000000000007</v>
@@ -3247,7 +3246,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>8.1</v>
@@ -3479,7 +3478,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>8.1999999999999993</v>
@@ -3595,7 +3594,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>7.7</v>
@@ -3711,7 +3710,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>7.6</v>
@@ -3827,7 +3826,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>8.8000000000000007</v>
@@ -4059,7 +4058,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>16.100000000000001</v>
@@ -4175,7 +4174,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>15.8</v>
@@ -4300,100 +4299,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D004E1-9EFC-4A62-A61A-4A13B54E7B8A}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
       </c>
       <c r="N1" t="s">
         <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
-        <v>58</v>
-      </c>
       <c r="V1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W1" t="s">
         <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
